--- a/LAPuEntries/LAPu-InsertsGenAnnotation-2.0.0/input/map_identity_plate.xlsx
+++ b/LAPuEntries/LAPu-InsertsGenAnnotation-2.0.0/input/map_identity_plate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Downloads\InsertsGenAnnotation_LAPu_files (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Downloads\InsertsGenAnnotation_LAPu_v200_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544D1A10-C2F4-4269-8206-BCB4D8FA264E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E402B-28D1-46C5-9AA2-C1B0322CE0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE6F3128-CD2B-4C30-A6BE-4BE84F109EBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FE6F3128-CD2B-4C30-A6BE-4BE84F109EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="map_identity_plate" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Row/Column</t>
   </si>
@@ -101,33 +101,6 @@
     <t>D10 from KT2440-pBLAM1-2-6T</t>
   </si>
   <si>
-    <t>G8 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>E7 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>H11 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>E10 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>D9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>D8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>A10 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>E7 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>E5 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -140,33 +113,6 @@
     <t>A10 from KT2440-pBLAM1-2-6T</t>
   </si>
   <si>
-    <t>E8 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>D7 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>F11 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>C10 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>C9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>C8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>H9 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>B7 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>D5 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -179,33 +125,6 @@
     <t>H9 from KT2440-pBLAM1-2-6T</t>
   </si>
   <si>
-    <t>C8 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>B11 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>E11 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>B10 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>B9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>B8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>B9 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>A7 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>C5 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -218,33 +137,6 @@
     <t>G9 from KT2440-pBLAM1-2-6T</t>
   </si>
   <si>
-    <t>B8 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>H12 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>D11 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>A10 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>A9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>A8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>A9 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>G6 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>A2 from KT2440-pBLAM1-2-TS2</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -257,33 +149,6 @@
     <t>D9 from KT2440-pBLAM1-2-6T</t>
   </si>
   <si>
-    <t>A8 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>G12 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>A11 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>H9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>H8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>H7 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>H8 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>C6 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>C3 from KT2440-pBLAM1-2-TS2</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -296,33 +161,6 @@
     <t>C9 from KT2440-pBLAM1-2-6T</t>
   </si>
   <si>
-    <t>H7 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>F12 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>H10 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>G9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>G8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>G12 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>B8 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>A6 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>B12 from KT2440-pBLAM1-2-TS2</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -335,33 +173,6 @@
     <t>B9 from KT2440-pBLAM1-2-6T</t>
   </si>
   <si>
-    <t>G7 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>D12 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>G10 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>F9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>F8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>C12 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>G7 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>H5 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>D4 from KT2440-pBLAM1-2-TS2</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -372,33 +183,6 @@
   </si>
   <si>
     <t>A9 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>F7 from KT2440-pBLAM1-2-6T</t>
-  </si>
-  <si>
-    <t>A12 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>F10 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>E9 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>E8 from KT2440-pBLAM1-2-6A</t>
-  </si>
-  <si>
-    <t>C10 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>F7 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>F5 from KT5L-1-pBAMD1-2-4L3(PIR2)</t>
-  </si>
-  <si>
-    <t>G6 from KT2440-pBLAM1-2-TS2</t>
   </si>
 </sst>
 </file>
@@ -434,9 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,22 +303,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D547951-B334-42C2-8CDA-CC41926BD1DB}" name="map_identity_plate" displayName="map_identity_plate" ref="A1:M9" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D547951-B334-42C2-8CDA-CC41926BD1DB}" name="map_identity_plate" displayName="map_identity_plate" ref="A1:M9" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:M9" xr:uid="{4D547951-B334-42C2-8CDA-CC41926BD1DB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C96BFECB-28DB-4ACD-90B7-5EFE40D4B051}" uniqueName="1" name="Row/Column" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5E4D4A36-5E0E-4CF4-A6C7-510982A19D43}" uniqueName="2" name="1" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1688EB4C-AFD8-4E15-BD0A-5FB46A5D71A1}" uniqueName="3" name="2" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{50EDA15C-8CB5-4A6E-86CA-96E8E56D6813}" uniqueName="4" name="3" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{72D75253-CDDE-4340-B56A-14D00605F0A8}" uniqueName="5" name="4" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{2BD68B06-D169-4BA2-9B36-0F693949E730}" uniqueName="6" name="5" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{CB1D935D-F995-48D7-B7D5-2F7549D1F10B}" uniqueName="7" name="6" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{DC382399-193B-4BF0-A097-A1CDA1DC8DC7}" uniqueName="8" name="7" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{129088AB-FCA1-42CF-BED4-C074E4B8CD3C}" uniqueName="9" name="8" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{AFD9F377-D390-478C-8A42-B7B94DF5E7B6}" uniqueName="10" name="9" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{992E0D77-DEBC-45C1-A40E-9FC421F38503}" uniqueName="11" name="10" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{F473A950-38BE-4F64-A86B-0AC362220DED}" uniqueName="12" name="11" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{6A4A09F0-12B8-4463-B6BA-94848735DCC9}" uniqueName="13" name="12" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C96BFECB-28DB-4ACD-90B7-5EFE40D4B051}" uniqueName="1" name="Row/Column" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5E4D4A36-5E0E-4CF4-A6C7-510982A19D43}" uniqueName="2" name="1" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1688EB4C-AFD8-4E15-BD0A-5FB46A5D71A1}" uniqueName="3" name="2" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{50EDA15C-8CB5-4A6E-86CA-96E8E56D6813}" uniqueName="4" name="3" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{72D75253-CDDE-4340-B56A-14D00605F0A8}" uniqueName="5" name="4" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2BD68B06-D169-4BA2-9B36-0F693949E730}" uniqueName="6" name="5" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{CB1D935D-F995-48D7-B7D5-2F7549D1F10B}" uniqueName="7" name="6" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{DC382399-193B-4BF0-A097-A1CDA1DC8DC7}" uniqueName="8" name="7" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{129088AB-FCA1-42CF-BED4-C074E4B8CD3C}" uniqueName="9" name="8" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AFD9F377-D390-478C-8A42-B7B94DF5E7B6}" uniqueName="10" name="9" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{992E0D77-DEBC-45C1-A40E-9FC421F38503}" uniqueName="11" name="10" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{F473A950-38BE-4F64-A86B-0AC362220DED}" uniqueName="12" name="11" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{6A4A09F0-12B8-4463-B6BA-94848735DCC9}" uniqueName="13" name="12" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -860,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD65239-ABA3-4340-9E23-1C5E881F1BDE}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,372 +663,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>51</v>
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>64</v>
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>77</v>
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>90</v>
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>103</v>
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>116</v>
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
